--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="23595" windowHeight="9975"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="23595" windowHeight="9975" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Email_ID" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="82">
   <si>
     <t>Emp_id</t>
   </si>
@@ -253,6 +252,15 @@
   </si>
   <si>
     <t>Vaibhav Rasal</t>
+  </si>
+  <si>
+    <t>asdf</t>
+  </si>
+  <si>
+    <t>sdf</t>
+  </si>
+  <si>
+    <t>asdfsdfxc</t>
   </si>
 </sst>
 </file>
@@ -621,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -976,12 +984,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>